--- a/excel_avancado_40/Correcoes-1-2.xlsx
+++ b/excel_avancado_40/Correcoes-1-2.xlsx
@@ -8,23 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\excel_avancado_40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0446A86-052D-4F50-8004-969A5DC31C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8845ED03-3262-4394-AB70-395B8B3A2375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Atividade01" sheetId="1" r:id="rId1"/>
     <sheet name="Atividade02" sheetId="4" r:id="rId2"/>
+    <sheet name="Relatorio" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Atividade01!$A$1:$N$27</definedName>
+    <definedName name="SegmentaçãodeDados_Estado">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Produtos">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="14" r:id="rId4"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="66">
   <si>
     <t>Vendas por Setores no 1º Semestre de 2016</t>
   </si>
@@ -211,18 +228,31 @@
   <si>
     <t>Quantidade de vendas por Região</t>
   </si>
+  <si>
+    <t>Soma de Total</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de Nº Vendas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,8 +299,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,8 +351,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -355,13 +410,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -385,9 +477,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,23 +501,2987 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="244">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -530,6 +3592,1152 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Estado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAFB8D8-289F-D2FF-11EA-8B81AF65E5E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Estado"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6152323" y="2799520"/>
+              <a:ext cx="1923222" cy="2990023"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168137</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>77443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>572329</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>17394</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Produtos">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5736C55E-F5E1-7E86-D031-9DDC407AD6AD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Produtos"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6206159" y="77443"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aluno" refreshedDate="45138.679850231485" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="29" xr:uid="{72008F6A-6282-46E5-B3B8-8145DA518A84}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:I31" sheet="Atividade02"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Pedido" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1001" maxValue="1029"/>
+    </cacheField>
+    <cacheField name="Região" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Região Centro-Oeste"/>
+        <s v="Região Sudeste"/>
+        <s v="Região Sul"/>
+        <s v="Região Nordeste"/>
+        <s v="Região Norte"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Estado" numFmtId="0">
+      <sharedItems count="9">
+        <s v="GO"/>
+        <s v="SP"/>
+        <s v="RS"/>
+        <s v="BA"/>
+        <s v="RJ"/>
+        <s v="MG"/>
+        <s v="AM"/>
+        <s v="ES"/>
+        <s v="PR"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Produtos" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Smartphone iOS"/>
+        <s v="Pen drive 32GB"/>
+        <s v="Monitor OLED 33&quot;"/>
+        <s v="SmartTV TV 50&quot; 4K"/>
+        <s v="Smartphone Android"/>
+        <s v="TV 48&quot; 4K"/>
+        <s v="TV 60&quot; 4K"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Data" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2022-11-17T00:00:00" maxDate="2022-11-22T00:00:00" count="5">
+        <d v="2022-11-17T00:00:00"/>
+        <d v="2022-11-18T00:00:00"/>
+        <d v="2022-11-19T00:00:00"/>
+        <d v="2022-11-20T00:00:00"/>
+        <d v="2022-11-21T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nº Vendas" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Valor Unitário" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="45" maxValue="8300"/>
+    </cacheField>
+    <cacheField name="Frete" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="25"/>
+    </cacheField>
+    <cacheField name="Total" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="55" maxValue="33260"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1226888164"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="29">
+  <r>
+    <n v="1001"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="8300"/>
+    <n v="15"/>
+    <n v="33260"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="45"/>
+    <n v="10"/>
+    <n v="220"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="8300"/>
+    <n v="15"/>
+    <n v="16630"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1790"/>
+    <n v="15"/>
+    <n v="1805"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="2950"/>
+    <n v="10"/>
+    <n v="2960"/>
+  </r>
+  <r>
+    <n v="1006"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="3200"/>
+    <n v="20"/>
+    <n v="12880"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2950"/>
+    <n v="10"/>
+    <n v="5920"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="2840"/>
+    <n v="10"/>
+    <n v="11400"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="2950"/>
+    <n v="20"/>
+    <n v="14850"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="3200"/>
+    <n v="10"/>
+    <n v="3210"/>
+  </r>
+  <r>
+    <n v="1011"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="3470"/>
+    <n v="10"/>
+    <n v="3480"/>
+  </r>
+  <r>
+    <n v="1012"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="1790"/>
+    <n v="15"/>
+    <n v="5415"/>
+  </r>
+  <r>
+    <n v="1013"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="6"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="3470"/>
+    <n v="10"/>
+    <n v="17400"/>
+  </r>
+  <r>
+    <n v="1014"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="3200"/>
+    <n v="25"/>
+    <n v="12900"/>
+  </r>
+  <r>
+    <n v="1015"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="45"/>
+    <n v="10"/>
+    <n v="275"/>
+  </r>
+  <r>
+    <n v="1016"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="1790"/>
+    <n v="10"/>
+    <n v="7200"/>
+  </r>
+  <r>
+    <n v="1017"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="45"/>
+    <n v="10"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <n v="1018"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="8300"/>
+    <n v="15"/>
+    <n v="16630"/>
+  </r>
+  <r>
+    <n v="1019"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="1790"/>
+    <n v="15"/>
+    <n v="9025"/>
+  </r>
+  <r>
+    <n v="1020"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="8300"/>
+    <n v="15"/>
+    <n v="8315"/>
+  </r>
+  <r>
+    <n v="1021"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="1790"/>
+    <n v="10"/>
+    <n v="9000"/>
+  </r>
+  <r>
+    <n v="1022"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="3200"/>
+    <n v="10"/>
+    <n v="3210"/>
+  </r>
+  <r>
+    <n v="1023"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="3470"/>
+    <n v="15"/>
+    <n v="6970"/>
+  </r>
+  <r>
+    <n v="1024"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="1790"/>
+    <n v="10"/>
+    <n v="9000"/>
+  </r>
+  <r>
+    <n v="1025"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="1790"/>
+    <n v="10"/>
+    <n v="9000"/>
+  </r>
+  <r>
+    <n v="1026"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="3470"/>
+    <n v="10"/>
+    <n v="10440"/>
+  </r>
+  <r>
+    <n v="1027"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="1790"/>
+    <n v="10"/>
+    <n v="5400"/>
+  </r>
+  <r>
+    <n v="1028"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="8300"/>
+    <n v="10"/>
+    <n v="8310"/>
+  </r>
+  <r>
+    <n v="1029"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="45"/>
+    <n v="20"/>
+    <n v="195"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B68BE5B1-ABE0-4D46-8EDE-B2D85D1DE407}" name="Tabela dinâmica7" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A23:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Soma de Total" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Nº Vendas" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="227">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="226">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="225">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="224">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94E8397A-7CCB-41D6-9DE9-521123A07DCC}" name="Tabela dinâmica6" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D14:E20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Nº Vendas" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="230">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="229">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="220">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="219">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8FA58B0E-E06B-43B7-A51F-4DB34D22F48C}" name="Tabela dinâmica5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A14:B20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="233">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="232">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="223">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="222">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61F1E079-DD59-4DBE-95F3-AF4B821383AA}" name="Tabela dinâmica4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D3:E11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Nº Vendas" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="238">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="235">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{422D4BFE-E7A0-4929-A0A0-8100A347BEB7}" name="Tabela dinâmica3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="240">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="241">
+      <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Estado" xr10:uid="{558B2B1E-CA16-4913-9B9E-C027D2151EF9}" sourceName="Estado">
+  <pivotTables>
+    <pivotTable tabId="7" name="Tabela dinâmica3"/>
+    <pivotTable tabId="7" name="Tabela dinâmica4"/>
+    <pivotTable tabId="7" name="Tabela dinâmica5"/>
+    <pivotTable tabId="7" name="Tabela dinâmica6"/>
+    <pivotTable tabId="7" name="Tabela dinâmica7"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1226888164">
+      <items count="9">
+        <i x="6" s="1"/>
+        <i x="3" s="1"/>
+        <i x="7" s="1"/>
+        <i x="0" s="1"/>
+        <i x="5" s="1"/>
+        <i x="8" s="1"/>
+        <i x="4" s="1"/>
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Produtos" xr10:uid="{EB92D684-778D-40F9-A619-B73D99CFF08C}" sourceName="Produtos">
+  <pivotTables>
+    <pivotTable tabId="7" name="Tabela dinâmica3"/>
+    <pivotTable tabId="7" name="Tabela dinâmica4"/>
+    <pivotTable tabId="7" name="Tabela dinâmica5"/>
+    <pivotTable tabId="7" name="Tabela dinâmica6"/>
+    <pivotTable tabId="7" name="Tabela dinâmica7"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1226888164">
+      <items count="7">
+        <i x="2" s="1"/>
+        <i x="1" s="1"/>
+        <i x="4" s="1"/>
+        <i x="0" s="1"/>
+        <i x="3" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Estado" xr10:uid="{3EAAE33D-05CB-4D91-B579-91FD32E38117}" cache="SegmentaçãodeDados_Estado" caption="Estado" rowHeight="241300"/>
+  <slicer name="Produtos" xr10:uid="{3BD37B86-E1A6-47F9-A137-6C17B3B84267}" cache="SegmentaçãodeDados_Produtos" caption="Produtos" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,7 +5042,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -863,21 +5071,21 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -913,13 +5121,13 @@
       <c r="K5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -967,9 +5175,9 @@
         <f t="shared" si="0"/>
         <v>265.39999999999998</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J7" s="8"/>
@@ -1495,7 +5703,7 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1508,11 +5716,11 @@
         <f>VLOOKUP(B20,A8:J18,8,0)</f>
         <v>22.9</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="20">
         <f>VLOOKUP(B20,A8:K18,11,0)</f>
         <v>22.1</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
@@ -1529,7 +5737,7 @@
         <f>"Média de "&amp;$B$20</f>
         <v>Média de Vestuário Infantil</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <f>VLOOKUP(B20,A8:J18,10,0)</f>
         <v>17.183333333333334</v>
       </c>
@@ -1552,10 +5760,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="1" operator="equal">
       <formula>"Abaixo da média"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="2" operator="equal">
       <formula>"Acima da média"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1635,83 +5843,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2B516F-AA92-43AD-9337-9D13475B0859}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="N1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="N1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="19"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1740,7 +5948,7 @@
         <f>VLOOKUP(B3,$K$12:$L$16,2,0)</f>
         <v>15</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="15">
         <f>F3*(G3+H3)</f>
         <v>33260</v>
       </c>
@@ -1750,14 +5958,14 @@
       <c r="L3" s="11">
         <v>45</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="Q3" s="19" t="s">
+      <c r="O3" s="21"/>
+      <c r="Q3" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="19"/>
+      <c r="R3" s="21"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1786,7 +5994,7 @@
         <f t="shared" ref="H4:H31" si="1">VLOOKUP(B4,$K$12:$L$16,2,0)</f>
         <v>10</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="15">
         <f t="shared" ref="I4:I31" si="2">F4*(G4+H4)</f>
         <v>220</v>
       </c>
@@ -1799,11 +6007,17 @@
       <c r="N4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="1"/>
+      <c r="O4" s="11">
+        <f>SUMIF($D$3:$D$31,N4,$I$3:$I$31)</f>
+        <v>745</v>
+      </c>
       <c r="Q4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="1"/>
+      <c r="R4" s="1">
+        <f>SUMIF($D$3:$D$31,Q4,$F$3:$F$31)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1832,7 +6046,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="15">
         <f t="shared" si="2"/>
         <v>16630</v>
       </c>
@@ -1845,11 +6059,17 @@
       <c r="N5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="11">
+        <f t="shared" ref="O5:O10" si="3">SUMIF($D$3:$D$31,N5,$I$3:$I$31)</f>
+        <v>55845</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="1"/>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5:R10" si="4">SUMIF($D$3:$D$31,Q5,$F$3:$F$31)</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1878,7 +6098,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="15">
         <f t="shared" si="2"/>
         <v>1805</v>
       </c>
@@ -1891,11 +6111,17 @@
       <c r="N6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="11">
+        <f t="shared" si="3"/>
+        <v>32200</v>
+      </c>
       <c r="Q6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="1"/>
+      <c r="R6" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1924,7 +6150,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="15">
         <f t="shared" si="2"/>
         <v>2960</v>
       </c>
@@ -1937,11 +6163,17 @@
       <c r="N7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="1"/>
+      <c r="O7" s="11">
+        <f t="shared" si="3"/>
+        <v>23730</v>
+      </c>
       <c r="Q7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1970,7 +6202,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="15">
         <f t="shared" si="2"/>
         <v>12880</v>
       </c>
@@ -1983,11 +6215,17 @@
       <c r="N8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="1"/>
+      <c r="O8" s="11">
+        <f t="shared" si="3"/>
+        <v>11400</v>
+      </c>
       <c r="Q8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="1"/>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2016,7 +6254,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="15">
         <f t="shared" si="2"/>
         <v>5920</v>
       </c>
@@ -2029,11 +6267,17 @@
       <c r="N9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="11">
+        <f t="shared" si="3"/>
+        <v>38290</v>
+      </c>
       <c r="Q9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="1"/>
+      <c r="R9" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2062,18 +6306,24 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="15">
         <f t="shared" si="2"/>
         <v>11400</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="O10" s="11">
+        <f t="shared" si="3"/>
+        <v>83145</v>
+      </c>
       <c r="Q10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R10" s="1"/>
+      <c r="R10" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2102,14 +6352,14 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="15">
         <f t="shared" si="2"/>
         <v>14850</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="19"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -2138,7 +6388,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="15">
         <f t="shared" si="2"/>
         <v>3210</v>
       </c>
@@ -2148,14 +6398,14 @@
       <c r="L12" s="11">
         <v>15</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="19"/>
-      <c r="Q12" s="19" t="s">
+      <c r="O12" s="21"/>
+      <c r="Q12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="R12" s="19"/>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2184,7 +6434,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="15">
         <f t="shared" si="2"/>
         <v>3480</v>
       </c>
@@ -2197,11 +6447,17 @@
       <c r="N13" s="10">
         <v>44882</v>
       </c>
-      <c r="O13" s="1"/>
+      <c r="O13" s="11">
+        <f>SUMIF($E$3:$E$31,N13,$I$3:$I$31)</f>
+        <v>50110</v>
+      </c>
       <c r="Q13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="11"/>
+      <c r="R13" s="26">
+        <f>SUMIF($B$3:$B$31,Q13,$F$3:$F$31)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -2230,7 +6486,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="15">
         <f t="shared" si="2"/>
         <v>5415</v>
       </c>
@@ -2243,11 +6499,17 @@
       <c r="N14" s="10">
         <v>44883</v>
       </c>
-      <c r="O14" s="1"/>
+      <c r="O14" s="11">
+        <f t="shared" ref="O14:O17" si="5">SUMIF($E$3:$E$31,N14,$I$3:$I$31)</f>
+        <v>23565</v>
+      </c>
       <c r="Q14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R14" s="11"/>
+      <c r="R14" s="26">
+        <f t="shared" ref="R14:R17" si="6">SUMIF($B$3:$B$31,Q14,$F$3:$F$31)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2276,7 +6538,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="15">
         <f t="shared" si="2"/>
         <v>17400</v>
       </c>
@@ -2289,11 +6551,17 @@
       <c r="N15" s="10">
         <v>44884</v>
       </c>
-      <c r="O15" s="1"/>
+      <c r="O15" s="11">
+        <f t="shared" si="5"/>
+        <v>38355</v>
+      </c>
       <c r="Q15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="11"/>
+      <c r="R15" s="26">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2322,7 +6590,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="15">
         <f t="shared" si="2"/>
         <v>12900</v>
       </c>
@@ -2335,11 +6603,17 @@
       <c r="N16" s="10">
         <v>44885</v>
       </c>
-      <c r="O16" s="1"/>
+      <c r="O16" s="11">
+        <f t="shared" si="5"/>
+        <v>71800</v>
+      </c>
       <c r="Q16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="26">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2368,18 +6642,24 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="15">
         <f t="shared" si="2"/>
         <v>275</v>
       </c>
       <c r="N17" s="10">
         <v>44886</v>
       </c>
-      <c r="O17" s="1"/>
+      <c r="O17" s="11">
+        <f t="shared" si="5"/>
+        <v>61525</v>
+      </c>
       <c r="Q17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="12"/>
+      <c r="R17" s="26">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -2408,7 +6688,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="15">
         <f t="shared" si="2"/>
         <v>7200</v>
       </c>
@@ -2440,7 +6720,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="15">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
@@ -2472,7 +6752,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="15">
         <f t="shared" si="2"/>
         <v>16630</v>
       </c>
@@ -2504,7 +6784,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="15">
         <f t="shared" si="2"/>
         <v>9025</v>
       </c>
@@ -2536,7 +6816,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="15">
         <f t="shared" si="2"/>
         <v>8315</v>
       </c>
@@ -2568,7 +6848,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="15">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
@@ -2600,7 +6880,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="15">
         <f t="shared" si="2"/>
         <v>3210</v>
       </c>
@@ -2632,7 +6912,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="15">
         <f t="shared" si="2"/>
         <v>6970</v>
       </c>
@@ -2664,7 +6944,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="15">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
@@ -2696,7 +6976,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="15">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
@@ -2728,7 +7008,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="15">
         <f t="shared" si="2"/>
         <v>10440</v>
       </c>
@@ -2760,7 +7040,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="15">
         <f t="shared" si="2"/>
         <v>5400</v>
       </c>
@@ -2792,7 +7072,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="15">
         <f t="shared" si="2"/>
         <v>8310</v>
       </c>
@@ -2824,32 +7104,391 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="15">
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H32" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" s="21">
-        <f>SUM(I3:I31)</f>
-        <v>245355</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N3:O3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DAD72F-BBF7-40BF-83E5-D2B758351DE0}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="27">
+        <v>55845</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="27">
+        <v>745</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="27">
+        <v>32200</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="27">
+        <v>83145</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="27">
+        <v>23730</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="27">
+        <v>11400</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="27">
+        <v>38290</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="27">
+        <v>245355</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="27">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>44882</v>
+      </c>
+      <c r="B15" s="27">
+        <v>50110</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>44883</v>
+      </c>
+      <c r="B16" s="27">
+        <v>23565</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>44884</v>
+      </c>
+      <c r="B17" s="27">
+        <v>38355</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>44885</v>
+      </c>
+      <c r="B18" s="27">
+        <v>71800</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>44886</v>
+      </c>
+      <c r="B19" s="27">
+        <v>61525</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="27">
+        <v>245355</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="27">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="27">
+        <v>55845</v>
+      </c>
+      <c r="C24" s="27">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="27">
+        <v>745</v>
+      </c>
+      <c r="C25" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="27">
+        <v>32200</v>
+      </c>
+      <c r="C26" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="27">
+        <v>83145</v>
+      </c>
+      <c r="C27" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="27">
+        <v>23730</v>
+      </c>
+      <c r="C28" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="27">
+        <v>11400</v>
+      </c>
+      <c r="C29" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="27">
+        <v>38290</v>
+      </c>
+      <c r="C30" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="27">
+        <v>245355</v>
+      </c>
+      <c r="C31" s="27">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId8"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>